--- a/paper/Supplement S1.xlsx
+++ b/paper/Supplement S1.xlsx
@@ -14,8 +14,8 @@
   <extLst>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1676671447" val="1060" rev="124" rev64="64" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1676671447" fixedDigits="0" showNotice="1" showProtection="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1676671447"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1676671447" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1676671447" overlapCells="1"/>
       <pm:defCurrency xmlns:pm="smNativeData" id="1676671447"/>
     </ext>
   </extLst>
@@ -233,205 +233,15 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00A933"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1676671447" type="1" fgLvl="100" fgClr="0000A933" bgLvl="100" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1676671447" type="1" fgLvl="100" fgClr="00FF0000" bgLvl="100" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1676671447" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="100" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF9E"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1676671447" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF018080"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1676671447" type="1" fgLvl="50" fgClr="0000FFFF" bgLvl="50" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00A3A3"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1676671447" type="1" fgLvl="64" fgClr="0000FFFF" bgLvl="36" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3DFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1676671447" type="1" fgLvl="76" fgClr="0000FFFF" bgLvl="24" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9EFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1676671447" type="1" fgLvl="38" fgClr="0000FFFF" bgLvl="62" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB3B3B3"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1676671447" type="1" fgLvl="100" fgClr="00B3B3B3" bgLvl="0" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF007F00"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1676671447" type="1" fgLvl="100" fgClr="00007F00" bgLvl="0" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1676671447" type="1" fgLvl="100" fgClr="0000FFFF" bgLvl="0" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE0FFE0"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1676671447" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5CFF5C"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1676671447" type="1" fgLvl="64" fgClr="0000FF00" bgLvl="36" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3DFF3D"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1676671447" type="1" fgLvl="76" fgClr="0000FF00" bgLvl="24" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00D100"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1676671447" type="1" fgLvl="82" fgClr="0000FF00" bgLvl="18" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1676671447" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1676671447" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="100" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="1">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -451,360 +261,11 @@
         </ext>
       </extLst>
     </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1676671447"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1676671447"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1676671447"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1676671447"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1676671447"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1676671447"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1676671447"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1676671447"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1676671447"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1676671447"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1676671447"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1676671447"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1676671447"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1676671447"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1676671447"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1676671447"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1676671447">
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1676671447">
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -817,9 +278,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -830,8 +288,17 @@
       <pm:charStyles xmlns:pm="smNativeData" id="1676671447" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1676671447" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1676671447" count="10">
         <pm:color name="Farbe 34" rgb="00A933"/>
+        <pm:color name="Farbe 25" rgb="FFFF9E"/>
+        <pm:color name="Farbe 26" rgb="018080"/>
+        <pm:color name="Farbe 27" rgb="00A3A3"/>
+        <pm:color name="Farbe 28" rgb="3DFFFF"/>
+        <pm:color name="Farbe 29" rgb="9EFFFF"/>
+        <pm:color name="Farbe 30" rgb="E0FFE0"/>
+        <pm:color name="Farbe 31" rgb="5CFF5C"/>
+        <pm:color name="Farbe 32" rgb="3DFF3D"/>
+        <pm:color name="Farbe 33" rgb="00D100"/>
       </pm:colors>
     </ext>
   </extLst>
@@ -1097,14 +564,14 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
   <cols>
     <col min="1" max="1" width="26.018018" customWidth="1"/>
     <col min="2" max="2" width="16.027027" customWidth="1"/>
-    <col min="3" max="3" width="22.729730" customWidth="1" style="6"/>
+    <col min="3" max="3" width="22.729730" customWidth="1" style="3"/>
     <col min="7" max="7" width="16.027027" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1115,7 +582,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1132,10 +599,10 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="5" t="n">
         <v>1000</v>
       </c>
       <c r="D2" s="1"/>
@@ -1144,14 +611,14 @@
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
-      <c r="J2" s="4"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="8"/>
+      <c r="B3"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1160,28 +627,28 @@
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
-      <c r="J3" s="4"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="8"/>
+      <c r="B4"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="1"/>
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
-      <c r="J4" s="4"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1190,7 +657,7 @@
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
-      <c r="J5" s="4"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
@@ -1199,7 +666,7 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1208,28 +675,28 @@
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
-      <c r="J6" s="4"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="8"/>
+      <c r="B7"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="1"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
-      <c r="J7" s="4"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1238,16 +705,16 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
-      <c r="J8" s="4"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1256,16 +723,16 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
-      <c r="J9" s="4"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1274,16 +741,16 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
-      <c r="J10" s="4"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1292,42 +759,42 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
-      <c r="J11" s="4"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="8"/>
+      <c r="B12"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="1"/>
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
-      <c r="J12" s="3"/>
+      <c r="J12"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="8"/>
+      <c r="B13"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="1"/>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
-      <c r="J13" s="3"/>
+      <c r="J13"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1336,16 +803,16 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
-      <c r="J14" s="4"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
@@ -1354,16 +821,16 @@
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
-      <c r="J15" s="4"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="8" t="n">
+      <c r="C16" s="5" t="n">
         <v>100</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -1374,16 +841,16 @@
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
-      <c r="J16" s="4"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="8" t="n">
+      <c r="C17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1394,16 +861,16 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
-      <c r="J17" s="4"/>
+      <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1412,16 +879,16 @@
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
-      <c r="J18" s="4"/>
+      <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1430,16 +897,16 @@
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
-      <c r="J19" s="4"/>
+      <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1448,16 +915,16 @@
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
-      <c r="J20" s="4"/>
+      <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="8"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1466,16 +933,16 @@
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
-      <c r="J21" s="4"/>
+      <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="8" t="n">
+      <c r="C22" s="5" t="n">
         <v>100</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1486,28 +953,28 @@
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
-      <c r="J22" s="4"/>
+      <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="8"/>
+      <c r="B23"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="1"/>
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
-      <c r="J23" s="3"/>
+      <c r="J23"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="8" t="n">
+      <c r="C24" s="5" t="n">
         <v>100</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1518,66 +985,66 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
-      <c r="J24" s="4"/>
+      <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="8"/>
+      <c r="B25"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="1"/>
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
-      <c r="J25" s="3"/>
+      <c r="J25"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="8"/>
+      <c r="B26"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="1"/>
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
-      <c r="J26" s="3"/>
+      <c r="J26"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="8"/>
+      <c r="B27"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="1"/>
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
-      <c r="J27" s="3"/>
+      <c r="J27"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="8"/>
+      <c r="B28"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="1"/>
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
-      <c r="J28" s="3"/>
+      <c r="J28"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="8" t="n">
+      <c r="C29" s="5" t="n">
         <v>50</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1588,16 +1055,16 @@
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
-      <c r="J29" s="4"/>
+      <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="3" t="s">
+      <c r="A30" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="9" t="n">
+      <c r="C30" s="3" t="n">
         <v>5</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1608,16 +1075,16 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
-      <c r="J30" s="4"/>
+      <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="8" t="n">
+      <c r="C31" s="5" t="n">
         <v>100</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1628,16 +1095,16 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
-      <c r="J31" s="4"/>
+      <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="8"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="1" t="s">
         <v>32</v>
       </c>
@@ -1646,16 +1113,16 @@
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
-      <c r="J32" s="4"/>
+      <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="8"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1664,28 +1131,27 @@
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
-      <c r="J33" s="4"/>
+      <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="3"/>
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="D34"/>
       <c r="E34"/>
       <c r="F34"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
-      <c r="J34" s="3"/>
+      <c r="J34"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="8" t="n">
+      <c r="C35" s="5" t="n">
         <v>100</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -1696,16 +1162,16 @@
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
-      <c r="J35" s="4"/>
+      <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="8"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="1" t="s">
         <v>32</v>
       </c>
@@ -1714,16 +1180,16 @@
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
-      <c r="J36" s="4"/>
+      <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="8"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="1" t="s">
         <v>32</v>
       </c>
@@ -1732,16 +1198,16 @@
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
-      <c r="J37" s="4"/>
+      <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -1752,16 +1218,16 @@
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
-      <c r="J38" s="4"/>
+      <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -1772,28 +1238,28 @@
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
-      <c r="J39" s="4"/>
+      <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="1"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="8"/>
+      <c r="B40"/>
+      <c r="C40" s="5"/>
       <c r="D40" s="1"/>
       <c r="E40"/>
       <c r="F40"/>
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
-      <c r="J40" s="4"/>
+      <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="8" t="n">
+      <c r="C41" s="5" t="n">
         <v>10</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -1804,66 +1270,65 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
-      <c r="J41" s="4"/>
+      <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="1"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="8"/>
+      <c r="B42"/>
+      <c r="C42" s="5"/>
       <c r="D42" s="1"/>
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42"/>
-      <c r="J42" s="4"/>
+      <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="1"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="8"/>
+      <c r="B43"/>
+      <c r="C43" s="5"/>
       <c r="D43" s="1"/>
       <c r="E43"/>
       <c r="F43"/>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43"/>
-      <c r="J43" s="3"/>
+      <c r="J43"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="3"/>
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="D44"/>
       <c r="E44"/>
       <c r="F44"/>
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44"/>
-      <c r="J44" s="3"/>
+      <c r="J44"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="8"/>
+      <c r="B45"/>
+      <c r="C45" s="5"/>
       <c r="D45" s="1"/>
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
-      <c r="J45" s="3"/>
+      <c r="J45"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="8" t="n">
+      <c r="C46" s="5" t="n">
         <v>100</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -1874,19 +1339,19 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
-      <c r="J46" s="4"/>
+      <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="1"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="8"/>
+      <c r="B47"/>
+      <c r="C47" s="5"/>
       <c r="D47" s="1"/>
       <c r="E47"/>
       <c r="F47"/>
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
-      <c r="J47" s="4"/>
+      <c r="J47" s="1"/>
     </row>
   </sheetData>
   <printOptions>

--- a/paper/Supplement S1.xlsx
+++ b/paper/Supplement S1.xlsx
@@ -13,17 +13,18 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1676671447" val="1060" rev="124" rev64="64" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1676671447" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1676671447" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1676671447"/>
+      <pm:revision xmlns:pm="smNativeData" day="1678899707" val="1062" rev="124" rev64="64" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1678899707" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1678899707" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1678899707"/>
+      <pm:pdfExportOpt xmlns:pm="smNativeData" pagesRangeIndex="1" pagesSelectionIndex="0" qualityIndex="1" embedFonts="2" pdfaType="0" useJpegs="0" useSubsetFonts="1" useAlpha="1" relativeLinks="0" taggedPdf="1" pane="0" zoom="0" zoomScale="100" layout="0" includeDoc="0" viewFlags="0" openViewer="1" jpegQuality="90" flags="252" exportWsNames="1" name="E:\Basti\Studium\HSHarz\WissenschaftlichesArbeiten\WebProcessing-StandardisedGISAnalysesforCableRoutePlanning\paper\Supplement S1.pdf" map="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="50">
   <si>
     <t>Description</t>
   </si>
@@ -112,7 +113,10 @@
     <t>LoD1</t>
   </si>
   <si>
-    <t>OpenGeoData Niedersachsen</t>
+    <t>OpenGeoData</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
   </si>
   <si>
     <t>ALKIS DLM 250</t>
@@ -194,7 +198,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1676671447" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1678899707" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -208,7 +212,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1676671447" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1678899707" ulstyle="none" kern="1">
             <pm:latin face="Liberation Sans" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -224,7 +228,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1676671447" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1678899707" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -233,15 +237,26 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1678899707" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -257,7 +272,26 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1676671447"/>
+          <pm:border xmlns:pm="smNativeData" id="1678899707"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1678899707"/>
         </ext>
       </extLst>
     </border>
@@ -285,10 +319,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1676671447" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1678899707" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1676671447" count="10">
+      <pm:colors xmlns:pm="smNativeData" id="1678899707" count="10">
         <pm:color name="Farbe 34" rgb="00A933"/>
         <pm:color name="Farbe 25" rgb="FFFF9E"/>
         <pm:color name="Farbe 26" rgb="018080"/>
@@ -564,14 +598,14 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
   <cols>
     <col min="1" max="1" width="26.018018" customWidth="1"/>
     <col min="2" max="2" width="16.027027" customWidth="1"/>
-    <col min="3" max="3" width="22.729730" customWidth="1" style="3"/>
+    <col min="3" max="3" width="19.936937" customWidth="1" style="3"/>
     <col min="7" max="7" width="16.027027" customWidth="1"/>
   </cols>
   <sheetData>
@@ -991,7 +1025,9 @@
       <c r="A25" s="1"/>
       <c r="B25"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
@@ -1001,7 +1037,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26"/>
       <c r="C26" s="5"/>
@@ -1039,7 +1075,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
@@ -1048,7 +1084,7 @@
         <v>50</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
@@ -1059,16 +1095,16 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
@@ -1079,7 +1115,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
@@ -1088,7 +1124,7 @@
         <v>100</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E31"/>
       <c r="F31"/>
@@ -1099,14 +1135,14 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
@@ -1117,14 +1153,14 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E33"/>
       <c r="F33"/>
@@ -1146,7 +1182,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
         <v>21</v>
@@ -1155,7 +1191,7 @@
         <v>100</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E35"/>
       <c r="F35"/>
@@ -1166,14 +1202,14 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E36"/>
       <c r="F36"/>
@@ -1184,14 +1220,14 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E37"/>
       <c r="F37"/>
@@ -1202,16 +1238,16 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E38"/>
       <c r="F38"/>
@@ -1222,16 +1258,16 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E39"/>
       <c r="F39"/>
@@ -1254,7 +1290,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
@@ -1263,7 +1299,7 @@
         <v>10</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E41"/>
       <c r="F41"/>
@@ -1309,7 +1345,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45"/>
       <c r="C45" s="5"/>
@@ -1323,7 +1359,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
         <v>21</v>
@@ -1332,7 +1368,7 @@
         <v>100</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E46"/>
       <c r="F46"/>
@@ -1357,7 +1393,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1676671447" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1678899707" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1366,16 +1402,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1676671447" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1676671447" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1676671447" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1676671447" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1678899707" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1678899707" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1678899707" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1678899707" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1676671447" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1678899707" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
